--- a/Charts20160424w.xlsx
+++ b/Charts20160424w.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7740" firstSheet="15" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7740" firstSheet="11" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Environmental variables" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="ENMTools" sheetId="17" r:id="rId15"/>
     <sheet name="Figx final model" sheetId="18" r:id="rId16"/>
     <sheet name="Sheet2" sheetId="20" r:id="rId17"/>
+    <sheet name="LayerContribution" sheetId="21" r:id="rId18"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -146,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="352">
   <si>
     <t>Layer</t>
   </si>
@@ -1214,6 +1215,27 @@
   </si>
   <si>
     <t>Tasselled cap transformations brightness, greenness, and wetness</t>
+  </si>
+  <si>
+    <t>35A</t>
+  </si>
+  <si>
+    <t>35N</t>
+  </si>
+  <si>
+    <t>37A</t>
+  </si>
+  <si>
+    <t>37N</t>
+  </si>
+  <si>
+    <t>Equal training sensitivity and specificity logistic threshold</t>
+  </si>
+  <si>
+    <t>Maximum training sensitivity plus specificity logistic threshold</t>
+  </si>
+  <si>
+    <t>Factor (% contribution)</t>
   </si>
 </sst>
 </file>
@@ -1379,7 +1401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1421,14 +1443,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1438,7 +1461,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -2449,11 +2474,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="444688528"/>
-        <c:axId val="450671888"/>
+        <c:axId val="476070416"/>
+        <c:axId val="476070808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="444688528"/>
+        <c:axId val="476070416"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2496,7 +2521,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="450671888"/>
+        <c:crossAx val="476070808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2504,7 +2529,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="450671888"/>
+        <c:axId val="476070808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.98"/>
@@ -2557,7 +2582,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444688528"/>
+        <c:crossAx val="476070416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2571,7 +2596,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3851,10 +3875,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
@@ -4687,233 +4711,233 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="24"/>
-    <col min="2" max="2" width="21.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="24"/>
+    <col min="1" max="1" width="9.140625" style="22"/>
+    <col min="2" max="2" width="21.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="24" t="s">
+      <c r="B2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="28" t="s">
+      <c r="D2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>319</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="22" t="s">
         <v>320</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="23" t="s">
         <v>319</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="22" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
-      <c r="B4" s="24" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="22" t="s">
         <v>321</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="23" t="s">
         <v>334</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="22" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
-      <c r="B5" s="24" t="s">
+      <c r="A5" s="28"/>
+      <c r="B5" s="22" t="s">
         <v>333</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="22" t="s">
         <v>337</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="22" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="28"/>
+      <c r="B6" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="22" t="s">
         <v>340</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="22" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
-      <c r="B7" s="24" t="s">
+      <c r="A7" s="28"/>
+      <c r="B7" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="23" t="s">
         <v>335</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="22" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="28"/>
+      <c r="B8" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="22" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="27"/>
-      <c r="B9" s="24" t="s">
+      <c r="A9" s="28"/>
+      <c r="B9" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="22" t="s">
         <v>341</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="22" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="28" t="s">
+      <c r="D11" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="23" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="23" t="s">
         <v>319</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="22" t="s">
         <v>320</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="23" t="s">
         <v>319</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="22" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28" t="s">
+      <c r="A13" s="28"/>
+      <c r="B13" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="22" t="s">
         <v>337</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="22" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="22" t="s">
         <v>340</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="22" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28" t="s">
+      <c r="A15" s="28"/>
+      <c r="B15" s="23" t="s">
         <v>335</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="23" t="s">
         <v>335</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="22" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28" t="s">
+      <c r="A16" s="28"/>
+      <c r="B16" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="22" t="s">
         <v>344</v>
       </c>
     </row>
@@ -4933,7 +4957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -4948,28 +4972,541 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="22">
         <v>0.89880000000000004</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="22">
         <v>0.80049999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="22">
         <v>0.91669999999999996</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="22">
         <v>0.87619999999999998</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
+      <c r="B2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>SUM(B3:E3)</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>AVERAGE(B3:E3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F22" si="0">SUM(B4:E4)</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G22" si="1">AVERAGE(B4:E4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9">
+        <v>6.9432</v>
+      </c>
+      <c r="C9">
+        <v>5.3489000000000004</v>
+      </c>
+      <c r="D9" s="7">
+        <v>16.827100000000002</v>
+      </c>
+      <c r="E9" s="7">
+        <v>45.8767</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="0"/>
+        <v>74.995900000000006</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="1"/>
+        <v>18.748975000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>6.9400000000000003E-2</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0.57279999999999998</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.64219999999999999</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.16055</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11">
+        <v>0.89859999999999995</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>7.0385</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>7.9371</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>1.984275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="7">
+        <v>20.501999999999999</v>
+      </c>
+      <c r="C12" s="7">
+        <v>49.018599999999999</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" si="0"/>
+        <v>69.520600000000002</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="1"/>
+        <v>34.760300000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13">
+        <v>0.124</v>
+      </c>
+      <c r="C13">
+        <v>1.4423999999999999</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>1.5663999999999998</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0.7831999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="7">
+        <v>36.555700000000002</v>
+      </c>
+      <c r="C14" s="7">
+        <v>39.0899</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" si="0"/>
+        <v>75.645600000000002</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="1"/>
+        <v>37.822800000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16">
+        <v>11.386200000000001</v>
+      </c>
+      <c r="D16" s="7">
+        <v>23.208500000000001</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" si="0"/>
+        <v>34.594700000000003</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="1"/>
+        <v>17.297350000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.38069999999999998</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>8.7806999999999995</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>9.1613999999999987</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>2.2903499999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>0.04</v>
+      </c>
+      <c r="C19">
+        <v>0.42520000000000002</v>
+      </c>
+      <c r="D19">
+        <v>0.3327</v>
+      </c>
+      <c r="E19">
+        <v>0.36720000000000003</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>1.1651</v>
+      </c>
+      <c r="G19" s="17">
+        <f t="shared" si="1"/>
+        <v>0.29127500000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>0.2303</v>
+      </c>
+      <c r="C21">
+        <v>0.55379999999999996</v>
+      </c>
+      <c r="D21">
+        <v>1.1132</v>
+      </c>
+      <c r="E21">
+        <v>1.7689999999999999</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>3.6662999999999997</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0.91657499999999992</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="7">
+        <v>23.32</v>
+      </c>
+      <c r="C22">
+        <v>3.6711999999999998</v>
+      </c>
+      <c r="D22" s="7">
+        <v>51.48</v>
+      </c>
+      <c r="E22" s="7">
+        <v>42.633800000000001</v>
+      </c>
+      <c r="F22" s="7">
+        <f t="shared" si="0"/>
+        <v>121.10499999999999</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" si="1"/>
+        <v>30.276249999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5147,9 +5684,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13494,15 +14031,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>176</v>
       </c>
@@ -13518,8 +14055,14 @@
       <c r="E1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>180</v>
       </c>
@@ -13536,7 +14079,7 @@
         <v>0.89700209478535498</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>181</v>
       </c>
@@ -13551,6 +14094,86 @@
       </c>
       <c r="E3">
         <v>0.93412804806432304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B4">
+        <v>0.336826261111485</v>
+      </c>
+      <c r="C4">
+        <v>0.85128970188587005</v>
+      </c>
+      <c r="D4">
+        <v>0.61386375001604965</v>
+      </c>
+      <c r="F4">
+        <v>0.38440000000000002</v>
+      </c>
+      <c r="G4">
+        <v>0.33679999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B5">
+        <v>0.36475377642588103</v>
+      </c>
+      <c r="C5">
+        <v>0.77093747153803904</v>
+      </c>
+      <c r="D5">
+        <v>0.58430845000457066</v>
+      </c>
+      <c r="F5">
+        <v>0.4965</v>
+      </c>
+      <c r="G5">
+        <v>0.46639999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B6">
+        <v>0.16134585435745799</v>
+      </c>
+      <c r="C6">
+        <v>0.80016038398120204</v>
+      </c>
+      <c r="D6">
+        <v>0.59570468278924238</v>
+      </c>
+      <c r="F6">
+        <v>0.31640000000000001</v>
+      </c>
+      <c r="G6">
+        <v>0.42230000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B7">
+        <v>0.212892000939055</v>
+      </c>
+      <c r="C7">
+        <v>0.67225483336471903</v>
+      </c>
+      <c r="D7">
+        <v>0.55865827934995538</v>
+      </c>
+      <c r="F7">
+        <v>0.53149999999999997</v>
+      </c>
+      <c r="G7">
+        <v>0.53149999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -13897,12 +14520,12 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -14006,12 +14629,12 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="25" t="s">
         <v>325</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">

--- a/Charts20160424w.xlsx
+++ b/Charts20160424w.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7740" firstSheet="11" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7740" firstSheet="11" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Environmental variables" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="354">
   <si>
     <t>Layer</t>
   </si>
@@ -1236,6 +1236,12 @@
   </si>
   <si>
     <t>Factor (% contribution)</t>
+  </si>
+  <si>
+    <t>Tasseled cap tranformation for wetness</t>
+  </si>
+  <si>
+    <t>Altitude</t>
   </si>
 </sst>
 </file>
@@ -2474,11 +2480,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="476070416"/>
-        <c:axId val="476070808"/>
+        <c:axId val="151807648"/>
+        <c:axId val="151810000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="476070416"/>
+        <c:axId val="151807648"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2521,7 +2527,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476070808"/>
+        <c:crossAx val="151810000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2529,7 +2535,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="476070808"/>
+        <c:axId val="151810000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.98"/>
@@ -2582,7 +2588,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476070416"/>
+        <c:crossAx val="151807648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4703,10 +4709,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4941,12 +4947,103 @@
         <v>344</v>
       </c>
     </row>
+    <row r="22" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B22" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="E22" s="27"/>
+    </row>
+    <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B23" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B24" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B25" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B26" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B27" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="D28" s="23"/>
+    </row>
+    <row r="29" spans="2:5" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="D29" s="23"/>
+    </row>
+    <row r="30" spans="2:5" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="D30" s="23"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="A3:A9"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -5002,7 +5099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
